--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261832.123780183</v>
+        <v>2337361.793444989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9821547.104691001</v>
+        <v>9821547.104690997</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>270.123259298857</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>142.8937582901807</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>134.9474759313288</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>101.5627341327607</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>322.94134093995</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>89.77007591892757</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.91143958001575</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>81.73375972274962</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>151.6125718725201</v>
+        <v>352.662746952368</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>150.3259629886459</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5216257986004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>86.80469552384545</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>202.8314011329659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>92.38459999757355</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>135.5947476878509</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7919727697738</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2287,10 +2289,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>234.51155328823</v>
       </c>
       <c r="X22" t="n">
-        <v>136.382261404086</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.3589276576327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>71.85738748352831</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>240.7319446106215</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>187.8326399421082</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>250.0564830815494</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>114.8548436777138</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>67.87162017033147</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.32456467617043</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>121.205199733354</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>30.13428397948825</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>32.28492340924026</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>51.50461310111804</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>42.64108407225444</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>411.9645167896914</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4071,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>241.3042408598806</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>19.69110395003728</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1464.687040303175</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1464.687040303175</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y2" t="n">
-        <v>1851.286880367297</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>443.6717438918015</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>443.6717438918015</v>
+        <v>2594.5604706821</v>
       </c>
       <c r="V4" t="n">
-        <v>443.6717438918015</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>2339.875982476214</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>2339.875982476214</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1640.777806202926</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.777806202926</v>
+        <v>881.6759572867027</v>
       </c>
       <c r="D5" t="n">
-        <v>1282.512107596176</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>896.7238549979313</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>889.7783542487279</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>471.8145461469147</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>144.6198261829176</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4610,7 +4612,7 @@
         <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628421</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.26766826482481</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1189.50268270914</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034342</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1576.102522773262</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1576.102522773262</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.3338608103787</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>398.3338608103787</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>398.3338608103787</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>398.3338608103787</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>251.4439133124684</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>571.7421478741406</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>3254.09465985463</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705745</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705745</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705745</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705745</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W13" t="n">
-        <v>874.927113122792</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X13" t="n">
-        <v>874.927113122792</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.1345339792618</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5300,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5469,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>693.9123150842264</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.130185042679</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,58 +5506,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.1814830641758</v>
+        <v>4347.338425602349</v>
       </c>
       <c r="C19" t="n">
-        <v>234.1814830641758</v>
+        <v>4178.402242674442</v>
       </c>
       <c r="D19" t="n">
-        <v>234.1814830641758</v>
+        <v>4178.402242674442</v>
       </c>
       <c r="E19" t="n">
-        <v>234.1814830641758</v>
+        <v>4030.489149092049</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1814830641758</v>
+        <v>3883.599201594139</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>3715.423879913959</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>3565.005871461903</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293934</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="W19" t="n">
-        <v>643.8194987924328</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="X19" t="n">
-        <v>415.8299478944155</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.8299478944155</v>
+        <v>4528.986890432589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,31 +5749,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>498.9056400965593</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030233</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.0596387883055</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0596387883055</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883055</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883055</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293934</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8194987924328</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="X22" t="n">
-        <v>506.0596387883055</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0596387883055</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273993</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>844.0280401273993</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>616.038489229382</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.5547239186419</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,34 +6223,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N27" t="n">
-        <v>2032.925401907738</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O27" t="n">
-        <v>2312.465467126435</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2517.487947908644</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>489.1545025205811</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>320.2183195926742</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>320.2183195926742</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>966.6240513566914</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W28" t="n">
-        <v>966.6240513566914</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>670.8029673508208</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>670.8029673508208</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,13 +6454,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>843.8929204411536</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>674.9567375132467</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>524.840098100911</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.18633122244</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1085.400916011945</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>796.2722772255036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>796.2722772255036</v>
+        <v>1246.333964414923</v>
       </c>
       <c r="W31" t="n">
-        <v>506.8551071885429</v>
+        <v>1246.333964414923</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>1246.333964414923</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>1025.541385271393</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3721.107993746784</v>
+        <v>4005.757801248823</v>
       </c>
       <c r="C34" t="n">
-        <v>3721.107993746784</v>
+        <v>3836.821618320916</v>
       </c>
       <c r="D34" t="n">
-        <v>3721.107993746784</v>
+        <v>3686.70497890858</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746784</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746784</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
         <v>4411.546387431056</v>
@@ -6889,19 +6891,19 @@
         <v>4549.85945949167</v>
       </c>
       <c r="U34" t="n">
-        <v>4260.730820705228</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V34" t="n">
-        <v>4260.730820705228</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="W34" t="n">
-        <v>3971.313650668268</v>
+        <v>4005.757801248823</v>
       </c>
       <c r="X34" t="n">
-        <v>3902.756458577024</v>
+        <v>4005.757801248823</v>
       </c>
       <c r="Y34" t="n">
-        <v>3902.756458577024</v>
+        <v>4005.757801248823</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1438.9924678547</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1239.072457770252</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T37" t="n">
-        <v>1015.287042559758</v>
+        <v>4427.429964811516</v>
       </c>
       <c r="U37" t="n">
-        <v>726.1584037733163</v>
+        <v>4138.301326025074</v>
       </c>
       <c r="V37" t="n">
-        <v>726.1584037733163</v>
+        <v>4138.301326025074</v>
       </c>
       <c r="W37" t="n">
-        <v>436.7412337363557</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="38">
@@ -7169,34 +7171,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.2200865194189</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C40" t="n">
-        <v>506.7814158330672</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1466.305236811195</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1177.176598024753</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>922.4921098188663</v>
       </c>
       <c r="W40" t="n">
-        <v>986.0022165609664</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="X40" t="n">
-        <v>758.0126656629491</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y40" t="n">
-        <v>537.2200865194189</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,31 +7426,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>498.9056400965593</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030233</v>
+        <v>3263.786115209753</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>3571.106248489714</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>3900.968876153747</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>4180.508941372444</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0436439308535</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>3947.448245542222</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>3947.448245542222</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>3904.376443449036</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7710,40 +7712,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K45" t="n">
-        <v>303.4575213834695</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L45" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M45" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653855</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918007</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136704</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U46" t="n">
-        <v>1255.17461312368</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V46" t="n">
-        <v>1000.490124917793</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="W46" t="n">
-        <v>711.072954880832</v>
+        <v>920.3704617345027</v>
       </c>
       <c r="X46" t="n">
-        <v>711.072954880832</v>
+        <v>692.3809108364853</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>672.4909068465487</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>230.7151863772034</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139961</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.661214550452</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>414.5002179180839</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2603911806626</v>
+        <v>15.83804904622875</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6093329825491</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.406710013101332</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>32.78140656352457</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="M36" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6230805871088</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>182.0340742867928</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>15.83804904622849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>19.14409596996603</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.31035438333687</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>165.3329477999825</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.69159720362512</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>126.2000533545212</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.89882077552664</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>5.627272694498146</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>52.01144504836097</v>
       </c>
       <c r="X22" t="n">
-        <v>89.32739398495116</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.2257256944621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>74.57657516304086</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>11.40569871320653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>10.08817004149503</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>2.081160242278628</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>31.57911896885538</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.8380352187057</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50.63978772762236</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>100.3423613250352</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>137.1125371191396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>189.262637649149</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>115.7422079975098</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>175.9435692798403</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26077,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>44.93311153869678</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>198.8935494020575</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837254.2622894618</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196783</v>
-      </c>
       <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.323395377374253e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="J4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773385</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834773</v>
+        <v>-260920.3609834768</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310673</v>
+        <v>329047.5182310675</v>
       </c>
       <c r="D6" t="n">
-        <v>329047.5182310674</v>
+        <v>329047.5182310672</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366874</v>
+        <v>-86587.70932366849</v>
       </c>
       <c r="F6" t="n">
-        <v>438572.3271532278</v>
+        <v>438572.3271532274</v>
       </c>
       <c r="G6" t="n">
+        <v>438572.3271532272</v>
+      </c>
+      <c r="H6" t="n">
+        <v>438572.3271532272</v>
+      </c>
+      <c r="I6" t="n">
+        <v>438572.3271532276</v>
+      </c>
+      <c r="J6" t="n">
+        <v>262149.1079606343</v>
+      </c>
+      <c r="K6" t="n">
         <v>438572.3271532274</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
         <v>438572.3271532274</v>
       </c>
-      <c r="I6" t="n">
-        <v>438572.3271532274</v>
-      </c>
-      <c r="J6" t="n">
-        <v>262149.1079606345</v>
-      </c>
-      <c r="K6" t="n">
-        <v>438572.3271532275</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>303771.3119193905</v>
+      </c>
+      <c r="N6" t="n">
         <v>438572.3271532271</v>
       </c>
-      <c r="M6" t="n">
-        <v>303771.3119193899</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>438572.3271532272</v>
       </c>
-      <c r="O6" t="n">
-        <v>438572.3271532271</v>
-      </c>
       <c r="P6" t="n">
-        <v>438572.3271532271</v>
+        <v>438572.3271532264</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
     </row>
     <row r="4">
@@ -26793,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.55978232182594</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.8373423882884</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>90.08762952675551</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>184.719140109217</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>31.741700680733</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>62.16124032593368</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.3983626790352</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>170.4038836010784</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>213.6603198984874</v>
+        <v>12.61014481863958</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16.98383927040504</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>131.7000303676204</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>541.1395634276697</v>
+        <v>487.1420318003108</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35506,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,10 +35737,10 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>509.9122281478575</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109088</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>724.9245949685502</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>363.8358297686018</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>594.0337100330154</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.41974279817546</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>239.8748214950492</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053976</v>
       </c>
       <c r="M36" t="n">
-        <v>660.1896773843231</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M39" t="n">
-        <v>510.0474576375751</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>363.8358297686019</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>389.1274892183175</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K45" t="n">
-        <v>166.4134876341677</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>329.5684730204331</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415672</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2330344.778553277</v>
+        <v>2335284.04140231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>21.3273839640394</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44118378147999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.06956368409313</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>285.853806898679</v>
       </c>
       <c r="I5" t="n">
-        <v>113.1400945265401</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.63560877676153</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>128.4678304511573</v>
       </c>
     </row>
     <row r="8">
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>195.4755619138957</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.64843562452451</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.6902956258802</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>249.5025448682377</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>43.03801681746324</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>102.7408927988477</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>39.55960582285805</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>193.2447533161213</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>109.9634471783214</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.496989041814882</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710081</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>79.4742087002211</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>21.66714102769351</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.781606227855</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2675.606278933334</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2675.606278933334</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2421.844493571426</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2090.781606227855</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.781606227855</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.781606227855</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.781606227855</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>533.9581501493108</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D4" t="n">
-        <v>383.841510736975</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>432.0692320582253</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>263.0694317965578</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2033.346402544967</v>
+        <v>1880.609977906362</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.383885604555</v>
+        <v>1511.647460965951</v>
       </c>
       <c r="D5" t="n">
-        <v>1306.118186997805</v>
+        <v>1153.3817623592</v>
       </c>
       <c r="E5" t="n">
-        <v>920.3299343995602</v>
+        <v>767.5935097609558</v>
       </c>
       <c r="F5" t="n">
-        <v>509.3440296099527</v>
+        <v>356.6076049713483</v>
       </c>
       <c r="G5" t="n">
-        <v>495.4206255485436</v>
+        <v>342.6842009099392</v>
       </c>
       <c r="H5" t="n">
-        <v>168.2259055845464</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598711</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>402.6523129118473</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>255.7623654139369</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
-        <v>255.7623654139369</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
         <v>235.9284171545818</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>235.9284171545818</v>
       </c>
     </row>
     <row r="8">
@@ -4804,7 +4804,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,16 +4837,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.09000478155</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
         <v>1188.639942242261</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036446</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.384017443268</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4478345153611</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>405.4836208433745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>237.3082991631951</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150552</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170379</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735078</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>757.8448490928333</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>468.4276790558727</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.8631874464246</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185177</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>140.6898357203497</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>140.6898357203497</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1284.062487524933</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1284.062487524933</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1284.062487524933</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>994.6453174879721</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>766.6557665899547</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.8631874464246</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805479</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6074,19 +6074,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>966.693239001134</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.019627967826</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P24" t="n">
-        <v>2486.320249703574</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>968.8590313878996</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>714.1745431820127</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>714.1745431820127</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839954</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>306.1124721890595</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.6754855415411</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C28" t="n">
-        <v>99.73930261363424</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="D28" t="n">
-        <v>99.73930261363424</v>
+        <v>356.2043741116905</v>
       </c>
       <c r="E28" t="n">
-        <v>99.73930261363424</v>
+        <v>208.2912805292974</v>
       </c>
       <c r="F28" t="n">
-        <v>99.73930261363424</v>
+        <v>208.2912805292974</v>
       </c>
       <c r="G28" t="n">
-        <v>99.73930261363424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>99.73930261363424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765191</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>496.6650364395585</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X28" t="n">
-        <v>268.6754855415411</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y28" t="n">
-        <v>268.6754855415411</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,19 +7587,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,22 +7627,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7654,13 +7654,13 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1477.030269519829</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.901630733387</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V46" t="n">
-        <v>933.2171425274998</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>643.7999724905393</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>415.8104215925219</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.62661940943553</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.96703739368785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>10.22353274165593</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.63509845559031</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>105.8758115500729</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>118.8066682595415</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2723743590793</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>92.99259908245602</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>56.53012128505995</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>107.9222564224571</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>9.461745143208788</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037966</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>66.95975394634807</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>199.8804200306957</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516047</v>
@@ -26325,34 +26325,34 @@
         <v>566992.1366196782</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196778</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196783</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196779</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.4835177339</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773394</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260920.3609834768</v>
+        <v>-260920.3609834773</v>
       </c>
       <c r="C6" t="n">
-        <v>329047.5182310672</v>
+        <v>329047.5182310676</v>
       </c>
       <c r="D6" t="n">
         <v>329047.5182310673</v>
       </c>
       <c r="E6" t="n">
-        <v>-87562.30058339011</v>
+        <v>-86685.16844964054</v>
       </c>
       <c r="F6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="G6" t="n">
-        <v>437597.7358935057</v>
+        <v>438474.8680272555</v>
       </c>
       <c r="H6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="I6" t="n">
-        <v>437597.7358935059</v>
+        <v>438474.8680272552</v>
       </c>
       <c r="J6" t="n">
-        <v>261174.5167009126</v>
+        <v>262051.6488346628</v>
       </c>
       <c r="K6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272555</v>
       </c>
       <c r="L6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272555</v>
       </c>
       <c r="M6" t="n">
-        <v>302796.7206596686</v>
+        <v>303673.8527934183</v>
       </c>
       <c r="N6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272551</v>
       </c>
       <c r="O6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.868027255</v>
       </c>
       <c r="P6" t="n">
-        <v>437597.7358935056</v>
+        <v>438474.8680272551</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>153.0883288449321</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>150.8056373171478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>84.10132515770202</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.06896586567814</v>
       </c>
       <c r="I5" t="n">
-        <v>38.79122171832111</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5352800650336</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>90.11682290093745</v>
       </c>
     </row>
     <row r="8">
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421579</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.7623767421578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q24" t="n">
-        <v>138.6396521945097</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
